--- a/biology/Botanique/Hyacinthaceae/Hyacinthaceae.xlsx
+++ b/biology/Botanique/Hyacinthaceae/Hyacinthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hyacinthaceae, les Hyacinthacées, regroupe des plantes monocotylédones ; elle comprend entre 500 et 1 000 espèces réparties en 40 à 70 genres.
 Cette famille cosmopolite ne comporte que des plantes herbacées, pérennes, le plus souvent à bulbe.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Hyacinthus qui est « le nom grec d'une fleur, dédiée à Hyacinthe, (personnage masculin dans la mythologie grecque), personnification  du printemps, tué par Apollon et changé en fleur »[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Hyacinthus qui est « le nom grec d'une fleur, dédiée à Hyacinthe, (personnage masculin dans la mythologie grecque), personnification  du printemps, tué par Apollon et changé en fleur ». 
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La prise en compte de cette famille, sa délimitation et ses genres font encore débat chez les botanistes. 
-Cette famille n'existait pas en classification classique de Cronquist (1981)[2], les espèces étant alors placées parmi les Liliaceae.
-En classification phylogénétique APG (1998)[3], cette famille existe et est rattachée à l'ordre des Asparagales.
-En classification phylogénétique APG II (2003)[4] la famille des Hyacinthaceae peut être supprimée, optionnellement. Dans ce cas, ses espèces sont classées parmi les Asparagaceae.
-En classification phylogénétique APG III (2009)[5] cette famille est invalide et ses genres sont incorporés dans la famille des Asparagaceae, au sein de laquelle des auteurs l'assimilent à la sous-famille des Scilloideae (en)[6].
+Cette famille n'existait pas en classification classique de Cronquist (1981), les espèces étant alors placées parmi les Liliaceae.
+En classification phylogénétique APG (1998), cette famille existe et est rattachée à l'ordre des Asparagales.
+En classification phylogénétique APG II (2003) la famille des Hyacinthaceae peut être supprimée, optionnellement. Dans ce cas, ses espèces sont classées parmi les Asparagaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille des Asparagaceae, au sein de laquelle des auteurs l'assimilent à la sous-famille des Scilloideae (en).
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Principaux genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les genres rencontrés en France on peut citer :
 Bellevalia dont Bellevalia romana
@@ -622,10 +640,12 @@
           <t>Statut, pression, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La jacinthe des bois est localement menacée par l'artificialisation des forêts ou une gestion trop intensive. 
-Des scilles sont souvent confondues avec la jacinthe des bois : la scille (Hyacinthoides hispanica) a été introduite (vers le XVIe-XVIIe siècle) en Europe de l'Ouest, dont en Grande-Bretagne où elle est devenue dominante dans les bois. La jacinthe des bois fait l'objet d'un plan national de restauration et d'opérations de réintroduction[7] au Royaume-Uni.
+Des scilles sont souvent confondues avec la jacinthe des bois : la scille (Hyacinthoides hispanica) a été introduite (vers le XVIe-XVIIe siècle) en Europe de l'Ouest, dont en Grande-Bretagne où elle est devenue dominante dans les bois. La jacinthe des bois fait l'objet d'un plan national de restauration et d'opérations de réintroduction au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -654,7 +674,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Albuca,
